--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H2">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>3.362681107068</v>
+        <v>10.89995580544989</v>
       </c>
       <c r="R2">
-        <v>30.264129963612</v>
+        <v>98.09960224904901</v>
       </c>
       <c r="S2">
-        <v>0.03853204955570617</v>
+        <v>0.1423974015428678</v>
       </c>
       <c r="T2">
-        <v>0.03853204955570617</v>
+        <v>0.1423974015428678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H3">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.3581069071011111</v>
+        <v>1.230508342267778</v>
       </c>
       <c r="R3">
-        <v>3.22296216391</v>
+        <v>11.07457508041</v>
       </c>
       <c r="S3">
-        <v>0.004103449792386646</v>
+        <v>0.01607540375788902</v>
       </c>
       <c r="T3">
-        <v>0.004103449792386646</v>
+        <v>0.01607540375788901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H4">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.1968504396137778</v>
+        <v>1.225949523818333</v>
       </c>
       <c r="R4">
-        <v>1.771653956524</v>
+        <v>11.033545714365</v>
       </c>
       <c r="S4">
-        <v>0.002255655726116181</v>
+        <v>0.01601584719519341</v>
       </c>
       <c r="T4">
-        <v>0.002255655726116181</v>
+        <v>0.01601584719519341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>13.593464</v>
       </c>
       <c r="I5">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J5">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>29.036780954976</v>
+        <v>27.39148999819645</v>
       </c>
       <c r="R5">
-        <v>261.331028594784</v>
+        <v>246.523409983768</v>
       </c>
       <c r="S5">
-        <v>0.3327245870396759</v>
+        <v>0.3578433775098813</v>
       </c>
       <c r="T5">
-        <v>0.3327245870396759</v>
+        <v>0.3578433775098813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
         <v>3.092256294568889</v>
@@ -821,10 +821,10 @@
         <v>27.83030665112</v>
       </c>
       <c r="S6">
-        <v>0.03543332507231508</v>
+        <v>0.04039734372418515</v>
       </c>
       <c r="T6">
-        <v>0.03543332507231508</v>
+        <v>0.04039734372418515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>1.699805278574222</v>
+        <v>3.080800025186667</v>
       </c>
       <c r="R7">
-        <v>15.298247507168</v>
+        <v>27.72720022668</v>
       </c>
       <c r="S7">
-        <v>0.01947760704736621</v>
+        <v>0.04024767862273695</v>
       </c>
       <c r="T7">
-        <v>0.01947760704736621</v>
+        <v>0.04024767862273695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H8">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I8">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J8">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N8">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q8">
-        <v>41.99529395538001</v>
+        <v>23.54950371489211</v>
       </c>
       <c r="R8">
-        <v>377.9576455984201</v>
+        <v>211.9455334340291</v>
       </c>
       <c r="S8">
-        <v>0.4812126681872805</v>
+        <v>0.3076515351510034</v>
       </c>
       <c r="T8">
-        <v>0.4812126681872805</v>
+        <v>0.3076515351510034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H9">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I9">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J9">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q9">
-        <v>4.472266132983335</v>
+        <v>2.658530116512223</v>
       </c>
       <c r="R9">
-        <v>40.25039519685001</v>
+        <v>23.92677104861</v>
       </c>
       <c r="S9">
-        <v>0.05124648302219623</v>
+        <v>0.0347311298570144</v>
       </c>
       <c r="T9">
-        <v>0.05124648302219623</v>
+        <v>0.0347311298570144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H10">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N10">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q10">
-        <v>2.458393113593334</v>
+        <v>2.648680726851667</v>
       </c>
       <c r="R10">
-        <v>22.12553802234001</v>
+        <v>23.838126541665</v>
       </c>
       <c r="S10">
-        <v>0.02817005902857669</v>
+        <v>0.03460245708810784</v>
       </c>
       <c r="T10">
-        <v>0.02817005902857669</v>
+        <v>0.03460245708810784</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H11">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I11">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J11">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N11">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q11">
-        <v>0.512675112588</v>
+        <v>0.6270428095177779</v>
       </c>
       <c r="R11">
-        <v>4.614076013292</v>
+        <v>5.643385285660001</v>
       </c>
       <c r="S11">
-        <v>0.005874604880818569</v>
+        <v>0.00819170906058418</v>
       </c>
       <c r="T11">
-        <v>0.005874604880818569</v>
+        <v>0.00819170906058418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H12">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I12">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J12">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q12">
-        <v>0.05459705903444446</v>
+        <v>0.07078757215555558</v>
       </c>
       <c r="R12">
-        <v>0.4913735313100001</v>
+        <v>0.6370881494</v>
       </c>
       <c r="S12">
-        <v>0.0006256128717912614</v>
+        <v>0.0009247713033331266</v>
       </c>
       <c r="T12">
-        <v>0.0006256128717912613</v>
+        <v>0.0009247713033331264</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H13">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I13">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J13">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N13">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q13">
-        <v>0.03001186198711112</v>
+        <v>0.07052531656666666</v>
       </c>
       <c r="R13">
-        <v>0.2701067578840001</v>
+        <v>0.6347278491</v>
       </c>
       <c r="S13">
-        <v>0.0003438977757705631</v>
+        <v>0.0009213451872034445</v>
       </c>
       <c r="T13">
-        <v>0.0003438977757705631</v>
+        <v>0.0009213451872034444</v>
       </c>
     </row>
   </sheetData>
